--- a/careerPrepClass/Application Info Summary.xlsx
+++ b/careerPrepClass/Application Info Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Education and Training</t>
   </si>
@@ -324,12 +324,18 @@
   </si>
   <si>
     <t>Fred O'Hara</t>
+  </si>
+  <si>
+    <t>(608) 276-1900</t>
+  </si>
+  <si>
+    <t>(608) 839-1240</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,6 +447,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -449,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,6 +552,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -581,6 +604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,9 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -748,28 +790,29 @@
     <col min="7" max="7" width="27" style="5" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="8">
         <v>42549</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -867,16 +910,16 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -986,19 +1029,19 @@
       <c r="A16" s="6"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1069,11 @@
       <c r="I18" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>63</v>
       </c>
@@ -1046,8 +1092,11 @@
       <c r="I19" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -1069,8 +1118,11 @@
       <c r="I20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -1093,9 +1145,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,21 +1155,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1145,15 +1197,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
